--- a/output/StructureDefinition-PhrComposition.xlsx
+++ b/output/StructureDefinition-PhrComposition.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.6</t>
+    <t>0.3.8</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-21T01:41:51-04:00</t>
+    <t>2022-09-21T01:58:34-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-PhrComposition.xlsx
+++ b/output/StructureDefinition-PhrComposition.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.8</t>
+    <t>0.3.9</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-21T01:58:34-04:00</t>
+    <t>2022-09-21T12:25:18-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-PhrComposition.xlsx
+++ b/output/StructureDefinition-PhrComposition.xlsx
@@ -9,11 +9,14 @@
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$55</definedName>
+  </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2027" uniqueCount="423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2027" uniqueCount="424">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.9</t>
+    <t>0.3.10</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-21T12:25:18-04:00</t>
+    <t>2022-09-28T23:23:22-07:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -546,6 +549,15 @@
   </si>
   <si>
     <t>Key metadata element describing the composition, used in searching/filtering.</t>
+  </si>
+  <si>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;system value="http://loinc.org"/&gt;
+    &lt;code value="11503-0"/&gt;
+    &lt;display value="Medical records"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
     <t>Type of a composition.</t>
@@ -1443,6 +1455,21 @@
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="22"/>
+        <i val="true"/>
+      </font>
+    </dxf>
+  </dxfs>
 </styleSheet>
 </file>
 
@@ -1782,7 +1809,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
         <v>27</v>
       </c>
@@ -1896,7 +1923,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
         <v>85</v>
       </c>
@@ -2010,7 +2037,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
         <v>93</v>
       </c>
@@ -2122,7 +2149,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
         <v>99</v>
       </c>
@@ -2236,7 +2263,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
         <v>105</v>
       </c>
@@ -2350,7 +2377,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
         <v>114</v>
       </c>
@@ -2464,7 +2491,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
         <v>122</v>
       </c>
@@ -2578,7 +2605,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
         <v>130</v>
       </c>
@@ -2692,7 +2719,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
         <v>138</v>
       </c>
@@ -2808,7 +2835,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
         <v>143</v>
       </c>
@@ -2922,7 +2949,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
         <v>153</v>
       </c>
@@ -3038,7 +3065,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
         <v>166</v>
       </c>
@@ -3085,7 +3112,7 @@
         <v>74</v>
       </c>
       <c r="R13" t="s" s="2">
-        <v>74</v>
+        <v>172</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>74</v>
@@ -3103,10 +3130,10 @@
         <v>110</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Z13" t="s" s="2">
         <v>74</v>
@@ -3139,24 +3166,24 @@
         <v>98</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3182,16 +3209,16 @@
         <v>167</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O14" t="s" s="2">
         <v>74</v>
@@ -3216,13 +3243,13 @@
         <v>74</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>74</v>
@@ -3240,7 +3267,7 @@
         <v>74</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>75</v>
@@ -3255,24 +3282,24 @@
         <v>98</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>163</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3280,13 +3307,13 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="F15" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>74</v>
@@ -3295,19 +3322,19 @@
         <v>87</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>74</v>
@@ -3356,7 +3383,7 @@
         <v>74</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>75</v>
@@ -3374,21 +3401,21 @@
         <v>74</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3411,17 +3438,17 @@
         <v>87</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>74</v>
@@ -3470,7 +3497,7 @@
         <v>74</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>75</v>
@@ -3485,24 +3512,24 @@
         <v>98</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3525,19 +3552,19 @@
         <v>87</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>74</v>
@@ -3586,7 +3613,7 @@
         <v>74</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>86</v>
@@ -3601,24 +3628,24 @@
         <v>98</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3641,17 +3668,17 @@
         <v>87</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>74</v>
@@ -3700,7 +3727,7 @@
         <v>74</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>86</v>
@@ -3715,24 +3742,24 @@
         <v>98</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3758,13 +3785,13 @@
         <v>88</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -3814,7 +3841,7 @@
         <v>74</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>86</v>
@@ -3832,21 +3859,21 @@
         <v>74</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3872,13 +3899,13 @@
         <v>106</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -3907,10 +3934,10 @@
         <v>158</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Z20" t="s" s="2">
         <v>74</v>
@@ -3928,7 +3955,7 @@
         <v>74</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>75</v>
@@ -3946,21 +3973,21 @@
         <v>74</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3983,19 +4010,19 @@
         <v>74</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>74</v>
@@ -4044,7 +4071,7 @@
         <v>74</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>75</v>
@@ -4062,21 +4089,21 @@
         <v>74</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4102,10 +4129,10 @@
         <v>88</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -4156,7 +4183,7 @@
         <v>74</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>75</v>
@@ -4186,9 +4213,9 @@
         <v>74</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4217,7 +4244,7 @@
         <v>133</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M23" t="s" s="2">
         <v>135</v>
@@ -4270,7 +4297,7 @@
         <v>74</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>75</v>
@@ -4300,13 +4327,13 @@
         <v>74</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
@@ -4328,10 +4355,10 @@
         <v>132</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M24" t="s" s="2">
         <v>135</v>
@@ -4386,7 +4413,7 @@
         <v>74</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>75</v>
@@ -4416,9 +4443,9 @@
         <v>74</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4444,14 +4471,14 @@
         <v>106</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>74</v>
@@ -4479,10 +4506,10 @@
         <v>158</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>74</v>
@@ -4500,7 +4527,7 @@
         <v>74</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>86</v>
@@ -4518,10 +4545,10 @@
         <v>74</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>74</v>
@@ -4530,9 +4557,9 @@
         <v>74</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4555,17 +4582,17 @@
         <v>74</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>74</v>
@@ -4614,7 +4641,7 @@
         <v>74</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>75</v>
@@ -4632,10 +4659,10 @@
         <v>74</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>74</v>
@@ -4644,9 +4671,9 @@
         <v>74</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4669,17 +4696,17 @@
         <v>74</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>74</v>
@@ -4728,7 +4755,7 @@
         <v>74</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>75</v>
@@ -4746,21 +4773,21 @@
         <v>74</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4783,19 +4810,19 @@
         <v>87</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>74</v>
@@ -4844,7 +4871,7 @@
         <v>74</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>75</v>
@@ -4862,21 +4889,21 @@
         <v>74</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4899,16 +4926,16 @@
         <v>74</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -4958,7 +4985,7 @@
         <v>74</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>75</v>
@@ -4976,21 +5003,21 @@
         <v>74</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5016,10 +5043,10 @@
         <v>88</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -5070,7 +5097,7 @@
         <v>74</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>75</v>
@@ -5100,9 +5127,9 @@
         <v>74</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5131,7 +5158,7 @@
         <v>133</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M31" t="s" s="2">
         <v>135</v>
@@ -5184,7 +5211,7 @@
         <v>74</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>75</v>
@@ -5214,13 +5241,13 @@
         <v>74</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
@@ -5242,10 +5269,10 @@
         <v>132</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M32" t="s" s="2">
         <v>135</v>
@@ -5300,7 +5327,7 @@
         <v>74</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>75</v>
@@ -5330,9 +5357,9 @@
         <v>74</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5358,13 +5385,13 @@
         <v>106</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -5393,10 +5420,10 @@
         <v>158</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>74</v>
@@ -5414,7 +5441,7 @@
         <v>74</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>86</v>
@@ -5432,21 +5459,21 @@
         <v>74</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5469,13 +5496,13 @@
         <v>74</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -5526,7 +5553,7 @@
         <v>74</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>86</v>
@@ -5544,21 +5571,21 @@
         <v>74</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5581,19 +5608,19 @@
         <v>87</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>74</v>
@@ -5642,7 +5669,7 @@
         <v>74</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>75</v>
@@ -5660,21 +5687,21 @@
         <v>74</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5700,10 +5727,10 @@
         <v>88</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5754,7 +5781,7 @@
         <v>74</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>75</v>
@@ -5784,9 +5811,9 @@
         <v>74</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5815,7 +5842,7 @@
         <v>133</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M37" t="s" s="2">
         <v>135</v>
@@ -5868,7 +5895,7 @@
         <v>74</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>75</v>
@@ -5898,13 +5925,13 @@
         <v>74</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -5926,10 +5953,10 @@
         <v>132</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M38" t="s" s="2">
         <v>135</v>
@@ -5984,7 +6011,7 @@
         <v>74</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>75</v>
@@ -6014,9 +6041,9 @@
         <v>74</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6042,13 +6069,13 @@
         <v>167</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -6074,13 +6101,13 @@
         <v>74</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>74</v>
@@ -6098,7 +6125,7 @@
         <v>74</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>75</v>
@@ -6116,21 +6143,21 @@
         <v>74</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6153,13 +6180,13 @@
         <v>87</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -6210,7 +6237,7 @@
         <v>74</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>75</v>
@@ -6228,21 +6255,21 @@
         <v>74</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6265,13 +6292,13 @@
         <v>87</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -6322,7 +6349,7 @@
         <v>74</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>75</v>
@@ -6340,7 +6367,7 @@
         <v>74</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>163</v>
@@ -6352,9 +6379,9 @@
         <v>74</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6377,13 +6404,13 @@
         <v>74</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -6434,7 +6461,7 @@
         <v>74</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>75</v>
@@ -6446,16 +6473,16 @@
         <v>74</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>74</v>
@@ -6464,9 +6491,9 @@
         <v>74</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6492,10 +6519,10 @@
         <v>88</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -6546,7 +6573,7 @@
         <v>74</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>75</v>
@@ -6576,9 +6603,9 @@
         <v>74</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6607,7 +6634,7 @@
         <v>133</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M44" t="s" s="2">
         <v>135</v>
@@ -6660,7 +6687,7 @@
         <v>74</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>75</v>
@@ -6690,13 +6717,13 @@
         <v>74</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
@@ -6718,10 +6745,10 @@
         <v>132</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M45" t="s" s="2">
         <v>135</v>
@@ -6776,7 +6803,7 @@
         <v>74</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>75</v>
@@ -6806,13 +6833,13 @@
         <v>74</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -6834,16 +6861,16 @@
         <v>88</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>74</v>
@@ -6892,7 +6919,7 @@
         <v>74</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>75</v>
@@ -6910,10 +6937,10 @@
         <v>74</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>74</v>
@@ -6922,9 +6949,9 @@
         <v>74</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6950,16 +6977,16 @@
         <v>167</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>74</v>
@@ -6984,13 +7011,13 @@
         <v>74</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>74</v>
@@ -7008,7 +7035,7 @@
         <v>74</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>75</v>
@@ -7026,10 +7053,10 @@
         <v>74</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>74</v>
@@ -7038,9 +7065,9 @@
         <v>74</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7063,17 +7090,17 @@
         <v>74</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>74</v>
@@ -7122,7 +7149,7 @@
         <v>74</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>75</v>
@@ -7140,21 +7167,21 @@
         <v>74</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7177,16 +7204,16 @@
         <v>74</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
@@ -7236,7 +7263,7 @@
         <v>74</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>75</v>
@@ -7257,7 +7284,7 @@
         <v>74</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>74</v>
@@ -7266,9 +7293,9 @@
         <v>74</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7294,13 +7321,13 @@
         <v>116</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
@@ -7350,7 +7377,7 @@
         <v>74</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>75</v>
@@ -7359,7 +7386,7 @@
         <v>86</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>98</v>
@@ -7368,10 +7395,10 @@
         <v>74</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>74</v>
@@ -7380,9 +7407,9 @@
         <v>74</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7408,16 +7435,16 @@
         <v>106</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>74</v>
@@ -7445,10 +7472,10 @@
         <v>158</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>74</v>
@@ -7466,7 +7493,7 @@
         <v>74</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>75</v>
@@ -7484,7 +7511,7 @@
         <v>74</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>163</v>
@@ -7493,12 +7520,12 @@
         <v>74</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7524,16 +7551,16 @@
         <v>167</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>74</v>
@@ -7561,10 +7588,10 @@
         <v>110</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>74</v>
@@ -7582,7 +7609,7 @@
         <v>74</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>75</v>
@@ -7600,7 +7627,7 @@
         <v>74</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>163</v>
@@ -7612,9 +7639,9 @@
         <v>74</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7637,16 +7664,16 @@
         <v>74</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -7696,7 +7723,7 @@
         <v>74</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>75</v>
@@ -7705,7 +7732,7 @@
         <v>76</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>98</v>
@@ -7714,10 +7741,10 @@
         <v>74</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>74</v>
@@ -7726,9 +7753,9 @@
         <v>74</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7754,16 +7781,16 @@
         <v>167</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>74</v>
@@ -7791,10 +7818,10 @@
         <v>110</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>74</v>
@@ -7812,7 +7839,7 @@
         <v>74</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>75</v>
@@ -7821,7 +7848,7 @@
         <v>86</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>98</v>
@@ -7830,7 +7857,7 @@
         <v>74</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>163</v>
@@ -7842,9 +7869,9 @@
         <v>74</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7870,13 +7897,13 @@
         <v>74</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -7926,7 +7953,7 @@
         <v>74</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>75</v>
@@ -7935,7 +7962,7 @@
         <v>76</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>98</v>
@@ -7944,10 +7971,10 @@
         <v>74</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>74</v>
@@ -7957,6 +7984,24 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AN55">
+    <filterColumn colId="6">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+    <filterColumn colId="26">
+      <filters blank="true"/>
+    </filterColumn>
+  </autoFilter>
+  <conditionalFormatting sqref="A2:AI54">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$G2&lt;&gt;"Y"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$Q2&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/output/StructureDefinition-PhrComposition.xlsx
+++ b/output/StructureDefinition-PhrComposition.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.10</t>
+    <t>0.4.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-28T23:23:22-07:00</t>
+    <t>2022-09-29T00:03:59-07:00</t>
   </si>
   <si>
     <t>Publisher</t>
